--- a/Perk_data/data/event/event_weapons_perks.xlsx
+++ b/Perk_data/data/event/event_weapons_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9684FA9-3104-4492-8465-D5E021A15CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2EA7A-B8AB-462B-9EEF-EBC85D5DD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Perk_data/data/event/event_weapons_perks.xlsx
+++ b/Perk_data/data/event/event_weapons_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2EA7A-B8AB-462B-9EEF-EBC85D5DD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBEEFB8-CC23-41EC-9AA1-7DCC8DEC39C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -659,17 +653,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,6 +671,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,197 +697,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>516255</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>26669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8589EE4-CB0D-4336-A701-03DC759E1694}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8422005" y="217169"/>
-          <a:ext cx="7244715" cy="4017646"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1030,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1241,7 +1047,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1258,7 +1064,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1275,7 +1081,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1292,7 +1098,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1309,7 +1115,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1326,7 +1132,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1343,7 +1149,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1360,7 +1166,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1377,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1394,7 +1200,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1411,7 +1217,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1428,7 +1234,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1445,7 +1251,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1462,7 +1268,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1478,8 +1284,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1495,8 +1301,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1512,8 +1318,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1529,8 +1335,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1546,8 +1352,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1563,8 +1369,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1580,8 +1386,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1597,8 +1403,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1614,8 +1420,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1631,8 +1437,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1647,10 +1453,9 @@
       <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1665,10 +1470,9 @@
       <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1684,8 +1488,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1701,8 +1505,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1718,8 +1522,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1735,8 +1539,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1753,7 +1557,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1770,7 +1574,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1787,7 +1591,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1804,7 +1608,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -1821,7 +1625,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1838,7 +1642,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -1855,7 +1659,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1872,7 +1676,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1889,7 +1693,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1906,7 +1710,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1923,7 +1727,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1940,7 +1744,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -1957,7 +1761,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -1974,7 +1778,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -1991,7 +1795,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -2008,7 +1812,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -2025,7 +1829,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -2042,7 +1846,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2059,7 +1863,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2076,7 +1880,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2093,7 +1897,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2110,7 +1914,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2127,7 +1931,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -2144,7 +1948,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -2161,7 +1965,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -2178,220 +1982,219 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="13" t="s">
+      <c r="E67" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+      <c r="D68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="E69" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="D70" s="3" t="s">
         <v>81</v>
       </c>
@@ -2399,169 +2202,168 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
-        <v>59</v>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="E75" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="B76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>85</v>
+      <c r="D78" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>125</v>
+        <v>75</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
-        <v>65</v>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>80</v>
@@ -2569,574 +2371,564 @@
       <c r="E80" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>79</v>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
-        <v>136</v>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
-        <v>136</v>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>91</v>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
-        <v>67</v>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="E90" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="E93" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>8</v>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="13" t="s">
+      <c r="E96" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="13" t="s">
+      <c r="E97" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="D111" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="13" t="s">
-        <v>66</v>
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3152,8 +2944,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -3169,8 +2961,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -3186,8 +2978,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -3203,8 +2995,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="13" t="s">
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -3220,8 +3012,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="13" t="s">
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -3237,8 +3029,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3254,8 +3046,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -3270,10 +3062,9 @@
       <c r="E121" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="12" t="s">
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -3289,8 +3080,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="13" t="s">
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -3306,8 +3097,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -3323,8 +3114,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="13" t="s">
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -3340,8 +3131,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="13" t="s">
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -3357,8 +3148,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -3374,8 +3165,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3391,8 +3182,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="15" t="s">
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -3408,8 +3199,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="13" t="s">
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3425,8 +3216,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -3442,8 +3233,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="13" t="s">
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -3459,8 +3250,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -3476,8 +3267,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -3493,8 +3284,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -3509,10 +3300,9 @@
       <c r="E135" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="12" t="s">
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -3527,10 +3317,9 @@
       <c r="E136" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="13" t="s">
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -3546,8 +3335,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -3563,8 +3352,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="16" t="s">
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -3579,10 +3368,9 @@
       <c r="E139" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -3598,8 +3386,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="13" t="s">
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -3615,8 +3403,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -3632,8 +3420,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="13" t="s">
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -3649,8 +3437,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B144" s="8" t="s">
@@ -3666,8 +3454,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B145" s="8" t="s">
@@ -3683,8 +3471,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -3700,8 +3488,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B147" s="8" t="s">
@@ -3717,8 +3505,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B148" s="8" t="s">
@@ -3734,8 +3522,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B149" s="8" t="s">
@@ -3751,8 +3539,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="15" t="s">
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B150" s="8" t="s">
@@ -3768,8 +3556,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B151" s="8" t="s">
@@ -3785,8 +3573,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B152" s="8" t="s">
@@ -3802,8 +3590,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B153" s="8" t="s">
@@ -3819,8 +3607,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B154" s="8" t="s">
@@ -3836,8 +3624,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="13" t="s">
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -3853,8 +3641,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -3870,8 +3658,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B157" s="8" t="s">
@@ -3886,10 +3674,9 @@
       <c r="E157" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F157" s="10"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="13" t="s">
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -3905,8 +3692,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="13" t="s">
+    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -3922,8 +3709,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="13" t="s">
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -3940,7 +3727,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -3957,7 +3744,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -3974,7 +3761,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -3991,7 +3778,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -4008,7 +3795,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B165" s="8" t="s">
@@ -4025,7 +3812,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -4042,7 +3829,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B167" s="8" t="s">
@@ -4059,7 +3846,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B168" s="8" t="s">
@@ -4076,7 +3863,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -4093,7 +3880,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B170" s="8" t="s">
@@ -4110,7 +3897,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -4127,7 +3914,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B172" s="8" t="s">
@@ -4144,7 +3931,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -4161,7 +3948,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -4178,7 +3965,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -4195,7 +3982,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -4211,8 +3998,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="12" t="s">
+    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B177" s="8" t="s">
@@ -4227,10 +4014,9 @@
       <c r="E177" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F177" s="10"/>
-    </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="12" t="s">
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B178" s="8" t="s">
@@ -4246,8 +4032,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="12" t="s">
+    <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="8" t="s">
@@ -4263,8 +4049,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="13" t="s">
+    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -4280,8 +4066,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="15" t="s">
+    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B181" s="8" t="s">
@@ -4297,8 +4083,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="15" t="s">
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B182" s="8" t="s">
@@ -4314,8 +4100,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="12" t="s">
+    <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B183" s="8" t="s">
@@ -4331,8 +4117,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B184" s="8" t="s">
@@ -4348,8 +4134,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="13" t="s">
+    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -4365,8 +4151,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="13" t="s">
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -4382,8 +4168,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="13" t="s">
+    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -4399,8 +4185,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="13" t="s">
+    <row r="188" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -4416,8 +4202,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="12" t="s">
+    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B189" s="8" t="s">
@@ -4433,8 +4219,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B190" s="8" t="s">
@@ -4450,8 +4236,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="12" t="s">
+    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B191" s="8" t="s">
@@ -4466,10 +4252,9 @@
       <c r="E191" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F191" s="10"/>
-    </row>
-    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="12" t="s">
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B192" s="8" t="s">
@@ -4484,10 +4269,9 @@
       <c r="E192" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F192" s="10"/>
-    </row>
-    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="13" t="s">
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -4503,8 +4287,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="12" t="s">
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B194" s="8" t="s">
@@ -4520,8 +4304,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="12" t="s">
+    <row r="195" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B195" s="8" t="s">
@@ -4536,10 +4320,9 @@
       <c r="E195" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F195" s="10"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="12" t="s">
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B196" s="8" t="s">
@@ -4555,8 +4338,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="12" t="s">
+    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B197" s="8" t="s">
@@ -4572,8 +4355,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="13" t="s">
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -4589,8 +4372,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="12" t="s">
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B199" s="8" t="s">
@@ -4606,8 +4389,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="12" t="s">
+    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B200" s="8" t="s">
@@ -4623,8 +4406,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="12" t="s">
+    <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B201" s="8" t="s">
@@ -4640,8 +4423,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="12" t="s">
+    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B202" s="8" t="s">
@@ -4657,8 +4440,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B203" s="8" t="s">
@@ -4674,8 +4457,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="12" t="s">
+    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B204" s="8" t="s">
@@ -4691,8 +4474,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="12" t="s">
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B205" s="8" t="s">
@@ -4708,8 +4491,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="15" t="s">
+    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B206" s="8" t="s">
@@ -4725,8 +4508,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="12" t="s">
+    <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B207" s="8" t="s">
@@ -4742,8 +4525,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="15" t="s">
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B208" s="8" t="s">
@@ -4759,8 +4542,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="13" t="s">
+    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -4776,8 +4559,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="12" t="s">
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B210" s="8" t="s">
@@ -4793,8 +4576,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="13" t="s">
+    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -4810,8 +4593,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="14" t="s">
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B212" s="8" t="s">
@@ -4827,8 +4610,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="12" t="s">
+    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B213" s="8" t="s">
@@ -4843,10 +4626,9 @@
       <c r="E213" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F213" s="10"/>
-    </row>
-    <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="13" t="s">
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -4862,8 +4644,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B215" s="8" t="s">
@@ -4879,8 +4661,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="13" t="s">
+    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -4896,8 +4678,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="13" t="s">
+    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -4913,8 +4695,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="13" t="s">
+    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -4930,8 +4712,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="12" t="s">
+    <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B219" s="8" t="s">
@@ -4947,8 +4729,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="12" t="s">
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B220" s="8" t="s">
@@ -4964,8 +4746,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B221" s="8" t="s">
@@ -4981,8 +4763,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="13" t="s">
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -4998,8 +4780,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="13" t="s">
+    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -5015,8 +4797,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B224" s="8" t="s">
@@ -5033,7 +4815,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="12" t="s">
+      <c r="A225" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B225" s="8" t="s">
@@ -5050,53 +4832,62 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
       <c r="E226" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
       <c r="E229" s="6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E229" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}"/>
+  <autoFilter ref="A1:E229" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:E228">
+      <sortCondition ref="A1:A229"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>